--- a/specific_variables/aerosol-size-distribution_2.xlsx
+++ b/specific_variables/aerosol-size-distribution_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B49A2-63B0-4C4C-B4AF-E140954B106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E318A4-6468-F048-83C2-300A4BE2E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:XFC1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17167,7 +17167,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D25" s="12"/>
     </row>
@@ -17254,7 +17254,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
